--- a/百度翻译.xlsx
+++ b/百度翻译.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22968" windowHeight="11495"/>
+    <workbookView windowWidth="16871" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,11 +33,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +47,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -54,6 +61,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -61,84 +90,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,7 +162,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +199,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,11 +393,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,21 +424,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -450,21 +434,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +456,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -497,160 +481,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1002,15 +996,15 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="14.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1024,55 +1018,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:3">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:3">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:3">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5">
-        <v>4</v>
-      </c>
+      <c r="A5"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6">
-        <v>5</v>
-      </c>
+      <c r="A6"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7">
-        <v>6</v>
-      </c>
+      <c r="A7"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8">
-        <v>7</v>
-      </c>
+      <c r="A8"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9">
-        <v>8</v>
-      </c>
+      <c r="A9"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10">
-        <v>9</v>
-      </c>
+      <c r="A10"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11">
-        <v>10</v>
-      </c>
+      <c r="A11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
